--- a/dynamic_modulus.xlsx
+++ b/dynamic_modulus.xlsx
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,17 +103,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -128,19 +125,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -164,7 +161,6 @@
       <c r="C2" s="0" t="n">
         <v>2.874262</v>
       </c>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
